--- a/Готовый парс.xlsx
+++ b/Готовый парс.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,234 +456,314 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>format</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>kol list</t>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>plotnost</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>kol listov</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>4041485559900</t>
+          <t>4602723164722</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://www.informat.ru/item.php?id=240756&amp;utm_source=zakaz&amp;utm_medium=price-list&amp;utm_campaign=linksite</t>
+          <t>https://www.informat.ru/item.php?id=238906&amp;utm_source=zakaz&amp;utm_medium=price-list&amp;utm_campaign=linksite</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Стиратель для досок ErichKrause 107x57 мм</t>
+          <t>Альбом для рисования 40 л. А4, склейка Schoolformat ЦВЕТОЧНОЕ НАСТРОЕНИЕ мелованный картон, ВД-лак, офсетная бумага</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4041485559900</t>
+          <t>4602723164722</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Рисование как вид творчества требует не только таланта, но и усердия, упорной шлифовки навыков. Кроме того, на конечный результат влияет и качество используемых материалов. Альбом Schoolformat – отличный выбор для школьников любого возраста! Бумага плотностью 100 г/м2 позволяет рисовать различными видами карандашей, красок и фломастеров. 100% белизна не искажает цвета, рисунок выглядит ярко и насыщенно. А интересные принты на обложках сделают учебу веселее! Альбом на склейке удобно носить с собой, листы держатся плотно и не выпадут, а удобный клеевой край поможет без труда ровно оторвать листок.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>А4</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>40</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4041485448075</t>
+          <t>4602723025269</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://www.informat.ru/item.php?id=217443&amp;utm_source=zakaz&amp;utm_medium=price-list&amp;utm_campaign=linksite</t>
+          <t>https://www.informat.ru/item.php?id=060885&amp;utm_source=zakaz&amp;utm_medium=price-list&amp;utm_campaign=linksite</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Стиратель для досок ErichKrause 107х57 мм</t>
+          <t>Папка для черчения А4 10 листов, 180 г/м2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4041485448075</t>
+          <t>4602723025269</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Папка для черчения формата А4 содержит 10 листов специальной чертежной бумаги марки А. Ее плотность в 180 г/м2 позволяет с легкостью использовать при черчении карандаши и гуашевую краску, необходимые при изготовлении профессиональных работ. В помощь начинающему чертежнику на обратно стороне обложки размещена полезная справочная информация о форматах бумаги, методах подписи чертежа, обозначениях линий.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>А4</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4602723048787</t>
+          <t>4602723182191</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://www.informat.ru/item.php?id=074520&amp;utm_source=zakaz&amp;utm_medium=price-list&amp;utm_campaign=linksite</t>
+          <t>https://www.informat.ru/item.php?id=249282&amp;utm_source=zakaz&amp;utm_medium=price-list&amp;utm_campaign=linksite</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Папка для графических работ AРTформат А4, 15 листов</t>
+          <t>Альбом для рисования 40 л. А4, гребень Schoolformat МАГИЧЕСКИЕ ОБЛАКА мелованный картон, сплошной УФ-лак, офсетная бумага</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4602723048787</t>
+          <t>4602723182191</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Рисование как вид творчества требует не только таланта, но и усердия, упорной шлифовки навыков. Кроме того, на конечный результат влияет и качество используемых материалов. Новая серия альбомов Schoolformat МАГИЧЕСКИЕ ОБЛАКА – отличный выбор для школьников любого возраста! Количество листов – 40. Бумага плотностью 100 г/м2 позволяет рисовать различными видами карандашей, красок и фломастеров. 100% белизна не искажает цвета, рисунок выглядит ярко и насыщенно. А интересный принт с эффектом сплошного УФ-лака на обложках сделают учебу веселее! Альбом на гребне удобно носить с собой, листы держатся плотно и не выпадут.</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>А4</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>15</t>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>40</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4602723025269</t>
+          <t>4602723123293</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://www.informat.ru/item.php?id=060885&amp;utm_source=zakaz&amp;utm_medium=price-list&amp;utm_campaign=linksite</t>
+          <t>https://www.informat.ru/item.php?id=204088&amp;utm_source=zakaz&amp;utm_medium=price-list&amp;utm_campaign=linksite</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Папка для черчения А4 10 листов, 180 г/м2</t>
+          <t>Книга для записей, А5,  96 л., линия, LOREX SPARKLE недатированный, твердая обложка, тонированная бумага, глиттер золото</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4602723025269</t>
+          <t>4602723123293</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>А4</t>
+          <t>Записная книжка серии SPARKLE, выполнен из высококачественной экокожи с эффектом глиттера, твердая обложка, комбинированный блок: точки/линия/ без линовки. Золотой глиттер, тонированная бумага 70 г, формат A5, 192 страницы.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>А5</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>96</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4602723182139</t>
+          <t>4602723164777</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://www.informat.ru/item.php?id=249278&amp;utm_source=zakaz&amp;utm_medium=price-list&amp;utm_campaign=linksite</t>
+          <t>https://www.informat.ru/item.php?id=238895&amp;utm_source=zakaz&amp;utm_medium=price-list&amp;utm_campaign=linksite</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Альбом для рисования 32 л. А4, скрепка Schoolformat АНИМЕ В ГОРОДЕ мелованный картон, ВД-лак, офсетная бумага</t>
+          <t>Альбом для рисования 40 л. А4, гребень Schoolformat СОЛНЕЧНЫЙ ДЕНЬ. ГОРОДА мелованный картон, матовая ламинация, выборочный УФ-лак, офсетная</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4602723182139</t>
+          <t>4602723164777</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Рисование как вид творчества требует не только таланта, но и усердия, упорной шлифовки навыков. Кроме того, на конечный результат влияет и качество используемых материалов. Альбом Schoolformat – отличный выбор для школьников любого возраста! Бумага плотностью 100 г/м2 позволяет рисовать различными видами карандашей, красок и фломастеров. 100% белизна не искажает цвета, рисунок выглядит ярко и насыщенно. А интересные принты на обложках сделают учебу веселее! Альбом на гребне удобно разворачивать на 360 градусов. Листы легко и аккуратно вырываются из альбома.</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>А4</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>32</t>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>40</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4602723186465</t>
+          <t>4601185015481</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://www.informat.ru/item.php?id=250578&amp;utm_source=zakaz&amp;utm_medium=price-list&amp;utm_campaign=linksite</t>
+          <t>https://www.informat.ru/item.php?id=205950&amp;utm_source=zakaz&amp;utm_medium=price-list&amp;utm_campaign=linksite</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Альбом для рисования 32 л. А4, скрепка Каляка-Маляка целлюлозный картон, ВД-лак, офсетная бумага, раскраска на обороте</t>
+          <t>Альбом для рисования 40 л. А4, скрепка Луч ШКОЛА ТВОРЧЕСТВА целлюлозный картон, офсетная бумага</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4602723186465</t>
+          <t>4601185015481</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Честный размер альбома на скрепке, формат А4 - 210*297мм. Обложка из высококачественного целлюлозного картона плотностью 190г/м3. Внутренний блок из офсетной бумаги плотностью 100 г/м3 из 40 листов. На оборотной стороне каждого альбома мастер-класс по рисованию. Транспортная упаковка - гофрокороб.</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>А4</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>32</t>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>40</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4602723182191</t>
+          <t>4602723164753</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://www.informat.ru/item.php?id=249282&amp;utm_source=zakaz&amp;utm_medium=price-list&amp;utm_campaign=linksite</t>
+          <t>https://www.informat.ru/item.php?id=238893&amp;utm_source=zakaz&amp;utm_medium=price-list&amp;utm_campaign=linksite</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Альбом для рисования 40 л. А4, гребень Schoolformat МАГИЧЕСКИЕ ОБЛАКА мелованный картон, сплошной УФ-лак, офсетная бумага</t>
+          <t>Альбом для рисования 40 л. А4, гребень Schoolformat ПОЛНЫЙ РЕЛАКС. ЖИВОТНЫЕ мелованный картон, сплошной УФ-лак, офсетная бумага</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4602723182191</t>
+          <t>4602723164753</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Рисование как вид творчества требует не только таланта, но и усердия, упорной шлифовки навыков. Кроме того, на конечный результат влияет и качество используемых материалов. Альбом Schoolformat – отличный выбор для школьников любого возраста! Бумага плотностью 100 г/м2 позволяет рисовать различными видами карандашей, красок и фломастеров. 100% белизна не искажает цвета, рисунок выглядит ярко и насыщенно. А интересные принты на обложках сделают учебу веселее! Альбом на гребне удобно разворачивать на 360 градусов. Листы легко и аккуратно вырываются из альбома.</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>А4</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
         <is>
           <t>40</t>
         </is>
@@ -692,94 +772,124 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4602723164753</t>
+          <t>4602723170853</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://www.informat.ru/item.php?id=238893&amp;utm_source=zakaz&amp;utm_medium=price-list&amp;utm_campaign=linksite</t>
+          <t>https://www.informat.ru/item.php?id=243513&amp;utm_source=zakaz&amp;utm_medium=price-list&amp;utm_campaign=linksite</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Альбом для рисования 40 л. А4, гребень Schoolformat ПОЛНЫЙ РЕЛАКС. ЖИВОТНЫЕ мелованный картон, сплошной УФ-лак, офсетная бумага</t>
+          <t>Антистеплер INFORMAT ERGONOMICS для скоб № 10, 24/6, 26/6 черный с фиксатором</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4602723164753</t>
+          <t>4602723170853</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>А4</t>
+          <t>Антистеплер  INFORMAT ERGONOMICS - незаменимый продукт в офисе. Рабочий механизм антистеплера выполнен из металла, эргономичный корпус из пластика. Позволяет разжать закрепленные скобы, не нанося повреждений ни материалу, ни кончикам пальцев. Снабжен фиксатором для компактного хранения. Для скоб № 10, 24/6, 26/6.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4602723164777</t>
+          <t>4041485559900</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://www.informat.ru/item.php?id=238895&amp;utm_source=zakaz&amp;utm_medium=price-list&amp;utm_campaign=linksite</t>
+          <t>https://www.informat.ru/item.php?id=240756&amp;utm_source=zakaz&amp;utm_medium=price-list&amp;utm_campaign=linksite</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Альбом для рисования 40 л. А4, гребень Schoolformat СОЛНЕЧНЫЙ ДЕНЬ. ГОРОДА мелованный картон, матовая ламинация, выборочный УФ-лак, офсетная</t>
+          <t>Стиратель для досок ErichKrause 107x57 мм</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4602723164777</t>
+          <t>4041485559900</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>А4</t>
+          <t>Стиратель для досок магнитный ErichKrause 107x57мм (в коробке по 12 шт). Используется для сухого стирания записей с магнитно-маркерных досок. Имеет встроенные магниты для удобного закрепления стирателя на поверхности доски. Не оставляет следов.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4602723164722</t>
+          <t>4602723182146</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://www.informat.ru/item.php?id=238906&amp;utm_source=zakaz&amp;utm_medium=price-list&amp;utm_campaign=linksite</t>
+          <t>https://www.informat.ru/item.php?id=249011&amp;utm_source=zakaz&amp;utm_medium=price-list&amp;utm_campaign=linksite</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Альбом для рисования 40 л. А4, склейка Schoolformat ЦВЕТОЧНОЕ НАСТРОЕНИЕ мелованный картон, ВД-лак, офсетная бумага</t>
+          <t>Альбом для рисования 40 л. А4, скрепка Schoolformat ИДЕИ И ВДОХНОВЕНИЕ мелованный картон, ВД-лак, офсетная бумага</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4602723164722</t>
+          <t>4602723182146</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>Рисование как вид творчества требует не только таланта, но и усердия, упорной шлифовки навыков. Кроме того, на конечный результат влияет и качество используемых материалов. Новая серия альбомов Schoolformat ИДЕИ И ВДОХНОВЕНИЕ – отличный выбор для школьников любого возраста! Количество листов – 40. Бумага плотностью 100 г/м2 позволяет рисовать различными видами карандашей, красок и фломастеров. 100% белизна не искажает цвета, рисунок выглядит ярко и насыщенно. А интересные принты с эффектом Вд-лака на обложках сделают учебу веселее! Альбом на скрепке удобно носить с собой, листы держатся плотно и не выпадут.</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>А4</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
         <is>
           <t>40</t>
         </is>
@@ -788,126 +898,166 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4602723182146</t>
+          <t>4041485448075</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://www.informat.ru/item.php?id=249011&amp;utm_source=zakaz&amp;utm_medium=price-list&amp;utm_campaign=linksite</t>
+          <t>https://www.informat.ru/item.php?id=217443&amp;utm_source=zakaz&amp;utm_medium=price-list&amp;utm_campaign=linksite</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Альбом для рисования 40 л. А4, скрепка Schoolformat ИДЕИ И ВДОХНОВЕНИЕ мелованный картон, ВД-лак, офсетная бумага</t>
+          <t>Стиратель для досок ErichKrause 107х57 мм</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4602723182146</t>
+          <t>4041485448075</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>А4</t>
+          <t>Используется для сухого стирания записей с магнитно-маркерных досок. Имеет встроенные магниты для удобного закрепления стирателя на поверхности доски. Не оставляет следов. Товар поставляется в нескольких вариантах цвета/дизайна без возможности выбора.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4602723182153</t>
+          <t>4602723182139</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://www.informat.ru/item.php?id=249012&amp;utm_source=zakaz&amp;utm_medium=price-list&amp;utm_campaign=linksite</t>
+          <t>https://www.informat.ru/item.php?id=249278&amp;utm_source=zakaz&amp;utm_medium=price-list&amp;utm_campaign=linksite</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Альбом для рисования 40 л. А4, скрепка Schoolformat СВОБОДА ПРИРОДЫ мелованный картон, ВД-лак, офсетная бумага</t>
+          <t>Альбом для рисования 32 л. А4, скрепка Schoolformat АНИМЕ В ГОРОДЕ мелованный картон, ВД-лак, офсетная бумага</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4602723182153</t>
+          <t>4602723182139</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
+          <t>Рисование как вид творчества требует не только таланта, но и усердия, упорной шлифовки навыков. Кроме того, на конечный результат влияет и качество используемых материалов. Новая серия альбомов Schoolformat АНИМЕ В ГОРОДЕ – отличный выбор для школьников любого возраста! Количество листов – 32. Бумага плотностью 100 г/м2 позволяет рисовать различными видами карандашей, красок и фломастеров. 100% белизна не искажает цвета, рисунок выглядит ярко и насыщенно. А интересный принт с эффектом ВД-лака на обложках сделают учебу веселее! Альбом на скрепке удобно носить с собой, листы держатся плотно и не выпадут.</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>А4</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>40</t>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>32</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4601185015481</t>
+          <t>4891199226274</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://www.informat.ru/item.php?id=205950&amp;utm_source=zakaz&amp;utm_medium=price-list&amp;utm_campaign=linksite</t>
+          <t>https://www.informat.ru/item.php?id=216749&amp;utm_source=zakaz&amp;utm_medium=price-list&amp;utm_campaign=linksite</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Альбом для рисования 40 л. А4, скрепка Луч ШКОЛА ТВОРЧЕСТВА целлюлозный картон, офсетная бумага</t>
+          <t>Батарейки GP SUPER AA LR6 алкалиновые 1,5V 4 шт/упак</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4601185015481</t>
+          <t>4891199226274</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>А4</t>
+          <t>Щелочные (алкалиновые) батарейки Super Alkaline от компании GP — источники питания "пальчикового" формата, очень популярного в бытовых устройствах. Они отличаются повышенной продолжительностью работы и отлично питают приборы любой мощности: цифровые фотоаппараты, фотовспышки, компьютерные клавиатуры и мышки, радиотелефоны, часы, фонарики, электронные будильники, пульты управления. Компактная блистерная упаковка из четырех батареек — удобное решение для походов, отдыха, поездки на дачу: при весе в 110 граммов ее легко взять с собой и использовать батарейки в нужный момент. GP Super Alkaline служат в несколько раз дольше солевых батареек, даже при повышенной нагрузке.  Хранятся алкалиновые батарейки также в несколько раз дольше: они спокойно ждут начала работы в течение семи лет, тогда как солевые "выдыхаются" за два года.</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4602723170853</t>
+          <t>4891199226281</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://www.informat.ru/item.php?id=243513&amp;utm_source=zakaz&amp;utm_medium=price-list&amp;utm_campaign=linksite</t>
+          <t>https://www.informat.ru/item.php?id=216747&amp;utm_source=zakaz&amp;utm_medium=price-list&amp;utm_campaign=linksite</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Антистеплер INFORMAT ERGONOMICS для скоб № 10, 24/6, 26/6 черный с фиксатором</t>
+          <t>Батарейки GP SUPER AAA LR03 алкалиновые 1,5V 4 шт/упак</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4602723170853</t>
+          <t>4891199226281</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Алкалиновые батарейки GP Super Alkaline 24A подходят для различных электронных устройств небольшого размера: пульты дистанционного управления телевизором, портативные цифровые аудиоплееры, карманные радиоприемники, фотоаппараты и другие беспроводные гаджеты. Super Alkaline 24A изготовлены по новой формуле для более надежной и продолжительной работы устройств с высоким потреблением энергии. Щелочные или алкалиновые батарейки обладают электрической емкостью в несколько раз большей, чем солевые. А также более высокой мощностью, что очень важно для работы устройств в полную силу.</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -916,64 +1066,126 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4891199226274</t>
+          <t>4602723186465</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://www.informat.ru/item.php?id=216749&amp;utm_source=zakaz&amp;utm_medium=price-list&amp;utm_campaign=linksite</t>
+          <t>https://www.informat.ru/item.php?id=250578&amp;utm_source=zakaz&amp;utm_medium=price-list&amp;utm_campaign=linksite</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Батарейки GP SUPER AA LR6 алкалиновые 1,5V 4 шт/упак</t>
+          <t>Альбом для рисования 32 л. А4, скрепка Каляка-Маляка целлюлозный картон, ВД-лак, офсетная бумага, раскраска на обороте</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4891199226274</t>
+          <t>4602723186465</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Альбом Каляка-Маляка является оптимальным решением для детского творчества: листы не просвечивают и не деформируются при намокании и высыхании, поэтому подходят для рисования красками, карандашами и фломастерами. Дизайн обложки с милыми зверятами понравится любому ребенку, а раскраска внутри альбома станет прекрасным дополнением.</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>А4</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>32</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4891199226281</t>
+          <t>4602723048787</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://www.informat.ru/item.php?id=216747&amp;utm_source=zakaz&amp;utm_medium=price-list&amp;utm_campaign=linksite</t>
+          <t>https://www.informat.ru/item.php?id=074520&amp;utm_source=zakaz&amp;utm_medium=price-list&amp;utm_campaign=linksite</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Батарейки GP SUPER AAA LR03 алкалиновые 1,5V 4 шт/упак</t>
+          <t>Папка для графических работ AРTформат А4, 15 листов</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4891199226281</t>
+          <t>4602723048787</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Бумага для графических работ предназначена для рисунков карандашом, углем и другими материалами. Поверхность бумаги шероховатая и стойкая к истиранию. Плотность бумаги – 180 г/м2. Формат А4. В папке - 15 листов.</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>А4</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4602723182153</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.informat.ru/item.php?id=249012&amp;utm_source=zakaz&amp;utm_medium=price-list&amp;utm_campaign=linksite</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Альбом для рисования 40 л. А4, скрепка Schoolformat СВОБОДА ПРИРОДЫ мелованный картон, ВД-лак, офсетная бумага</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4602723182153</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Рисование как вид творчества требует не только таланта, но и усердия, упорной шлифовки навыков. Кроме того, на конечный результат влияет и качество используемых материалов. Новая серия альбомов Schoolformat СВОБОДА ПРИРОДЫ – отличный выбор для школьников любого возраста! Количество листов – 40. Бумага плотностью 100 г/м2 позволяет рисовать различными видами карандашей, красок и фломастеров. 100% белизна не искажает цвета, рисунок выглядит ярко и насыщенно. А интересные принты с эффектом Вд-лака на обложках сделают учебу веселее! Альбом на скрепке удобно носить с собой, листы держатся плотно и не выпадут.</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>А4</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>40</t>
         </is>
       </c>
     </row>
